--- a/Plan/Table/0_전체 테이블 정보.xlsx
+++ b/Plan/Table/0_전체 테이블 정보.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09810AA-C320-4E9A-8EBB-A35C396F2942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184C3E45-0162-4674-AC0A-046C32619B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{2ED65361-2523-4CEA-910B-24D0BB4057AD}"/>
+    <workbookView xWindow="12105" yWindow="6945" windowWidth="7500" windowHeight="6000" xr2:uid="{2ED65361-2523-4CEA-910B-24D0BB4057AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>INDEX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,27 @@
   </si>
   <si>
     <t>보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.Chr_Class_table</t>
+  </si>
+  <si>
+    <t>17.Status_Effect_Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.Trait_Set_Table</t>
+  </si>
+  <si>
+    <t>20.Stage_Monste_Lv_Table</t>
+  </si>
+  <si>
+    <t>D.아이템관련테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.Shop_Table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,14 +398,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -722,10 +736,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD27BEA-B1BB-4393-B7DA-B9DD374A8D8E}">
-  <dimension ref="B3:D21"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B3:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -833,13 +848,13 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="6">
+      <c r="B13" s="11">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="13" t="s">
         <v>10</v>
       </c>
     </row>
@@ -920,15 +935,70 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="8">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="6">
         <v>16</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="7" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="6">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="6">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="6">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="6">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="8">
+        <v>21</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Plan/Table/0_전체 테이블 정보.xlsx
+++ b/Plan/Table/0_전체 테이블 정보.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184C3E45-0162-4674-AC0A-046C32619B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99DB753-BB06-48BA-80E1-D74B650ADBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12105" yWindow="6945" windowWidth="7500" windowHeight="6000" xr2:uid="{2ED65361-2523-4CEA-910B-24D0BB4057AD}"/>
+    <workbookView xWindow="24990" yWindow="2880" windowWidth="12750" windowHeight="16380" xr2:uid="{2ED65361-2523-4CEA-910B-24D0BB4057AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>INDEX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,56 +93,66 @@
     <t>12.Box_Table</t>
   </si>
   <si>
+    <t>14.Chr_AI_Table</t>
+  </si>
+  <si>
+    <t>15.Velue_Table</t>
+  </si>
+  <si>
+    <t>16.Synergy_Table</t>
+  </si>
+  <si>
+    <t>A.메인관리테이블</t>
+  </si>
+  <si>
+    <t>C.스테이지관련테이블</t>
+  </si>
+  <si>
+    <t>D.아이템관련테이블</t>
+  </si>
+  <si>
+    <t>B.캐릭터 관련 테이블</t>
+  </si>
+  <si>
+    <t>A.메인관리테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.Status_Effect_Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.Trait_Set_Table</t>
+  </si>
+  <si>
+    <t>20.Stage_Monste_Lv_Table</t>
+  </si>
+  <si>
+    <t>D.아이템관련테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.Shop_Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.Chr_Class_table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>13.Gacha_Table</t>
-  </si>
-  <si>
-    <t>14.Chr_AI_Table</t>
-  </si>
-  <si>
-    <t>15.Velue_Table</t>
-  </si>
-  <si>
-    <t>16.Synergy_Table</t>
-  </si>
-  <si>
-    <t>A.메인관리테이블</t>
-  </si>
-  <si>
-    <t>C.스테이지관련테이블</t>
-  </si>
-  <si>
-    <t>D.아이템관련테이블</t>
-  </si>
-  <si>
-    <t>B.캐릭터 관련 테이블</t>
-  </si>
-  <si>
-    <t>A.메인관리테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18.Chr_Class_table</t>
-  </si>
-  <si>
-    <t>17.Status_Effect_Table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.Trait_Set_Table</t>
-  </si>
-  <si>
-    <t>20.Stage_Monste_Lv_Table</t>
-  </si>
-  <si>
-    <t>D.아이템관련테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21.Shop_Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E.인카운트이벤트테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.Event_Table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -737,10 +747,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD27BEA-B1BB-4393-B7DA-B9DD374A8D8E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B3:D26"/>
+  <dimension ref="B3:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -754,7 +764,7 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -775,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>5</v>
@@ -786,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>6</v>
@@ -797,7 +807,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>4</v>
@@ -808,7 +818,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>3</v>
@@ -819,7 +829,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>7</v>
@@ -830,7 +840,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>8</v>
@@ -841,7 +851,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>9</v>
@@ -852,7 +862,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>10</v>
@@ -863,7 +873,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>11</v>
@@ -874,7 +884,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>12</v>
@@ -885,7 +895,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>13</v>
@@ -896,7 +906,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>14</v>
@@ -907,10 +917,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
@@ -918,10 +928,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
@@ -929,10 +939,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
@@ -940,10 +950,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
@@ -951,10 +961,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
@@ -962,10 +972,10 @@
         <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
@@ -973,10 +983,10 @@
         <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
@@ -984,21 +994,32 @@
         <v>20</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="6">
+        <v>21</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="8">
-        <v>21</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>30</v>
+    <row r="27" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="8">
+        <v>22</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
